--- a/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_medfee.xlsx
+++ b/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_medfee.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22848" windowHeight="9624"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22845" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -54,6 +54,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -65,7 +133,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -617,11 +685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43296640"/>
-        <c:axId val="43304448"/>
+        <c:axId val="98769920"/>
+        <c:axId val="98771712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43296640"/>
+        <c:axId val="98769920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +698,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43304448"/>
+        <c:crossAx val="98771712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -638,7 +706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43304448"/>
+        <c:axId val="98771712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -654,7 +722,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43296640"/>
+        <c:crossAx val="98769920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -998,15 +1066,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1">
         <f>E1/2</f>
         <v>152.62</v>
@@ -1028,8 +1096,20 @@
       <c r="G1">
         <v>305.08</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <f>A1*50</f>
+        <v>7631</v>
+      </c>
+      <c r="J1">
+        <f>B1*50</f>
+        <v>7603</v>
+      </c>
+      <c r="K1">
+        <f>C1*50</f>
+        <v>7627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A50" si="0">E2/2</f>
         <v>155.5</v>
@@ -1051,8 +1131,20 @@
       <c r="G2">
         <v>311.27999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <f t="shared" ref="I2:I50" si="3">A2*50</f>
+        <v>7775</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J50" si="4">B2*50</f>
+        <v>7718.0000000000009</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K49" si="5">C2*50</f>
+        <v>7781.9999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>158.41999999999999</v>
@@ -1074,8 +1166,20 @@
       <c r="G3">
         <v>317.56</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>7920.9999999999991</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="4"/>
+        <v>7820</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="5"/>
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>161.12</v>
@@ -1097,8 +1201,20 @@
       <c r="G4">
         <v>323.95999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>8056</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>7934</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>8098.9999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>164.22</v>
@@ -1120,8 +1236,20 @@
       <c r="G5">
         <v>329.68</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>8211</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>8034</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>167.36</v>
@@ -1143,8 +1271,20 @@
       <c r="G6">
         <v>334.56</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>8368</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>8125</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>8364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>170.08</v>
@@ -1166,8 +1306,20 @@
       <c r="G7">
         <v>339.36</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>8504</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>8236</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>8484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>172.96</v>
@@ -1189,8 +1341,20 @@
       <c r="G8">
         <v>344.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>8648</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>8353</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>8620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>175.94</v>
@@ -1212,8 +1376,20 @@
       <c r="G9">
         <v>349.72</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>8797</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>8455</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>179.1</v>
@@ -1235,8 +1411,20 @@
       <c r="G10">
         <v>355.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>8955</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>8569</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>8877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>182.4</v>
@@ -1258,8 +1446,20 @@
       <c r="G11">
         <v>359.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>9120</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>8661</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>8980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>185.66</v>
@@ -1281,8 +1481,20 @@
       <c r="G12">
         <v>364.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>9283</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>8815</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>189.38</v>
@@ -1304,8 +1516,20 @@
       <c r="G13">
         <v>371</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>9469</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>8973</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>9275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>192.6</v>
@@ -1327,8 +1551,20 @@
       <c r="G14">
         <v>376.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>9630</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>9106</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>196.06</v>
@@ -1350,8 +1586,20 @@
       <c r="G15">
         <v>382.76</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>9803</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>9262</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>9569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>199.3</v>
@@ -1373,8 +1621,20 @@
       <c r="G16">
         <v>388.08</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>9965</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>9374</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>9702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>203.06</v>
@@ -1396,8 +1656,20 @@
       <c r="G17">
         <v>394.44</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>10153</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>9490</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>9861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>206.54</v>
@@ -1419,8 +1691,20 @@
       <c r="G18">
         <v>399.92</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>10327</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>9631</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>9998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>209.98</v>
@@ -1442,8 +1726,20 @@
       <c r="G19">
         <v>405.76</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>10499</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>9759</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>10144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>213.24</v>
@@ -1465,8 +1761,20 @@
       <c r="G20">
         <v>411.12</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>10662</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>9884</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>10278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>216.38</v>
@@ -1488,8 +1796,20 @@
       <c r="G21">
         <v>416.68</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>10819</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>10021</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>10417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>219.82</v>
@@ -1511,8 +1831,20 @@
       <c r="G22">
         <v>422.88</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>10991</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>10158</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>10572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>223.88</v>
@@ -1534,8 +1866,20 @@
       <c r="G23">
         <v>430.44</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>11194</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>10268</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>10761</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>227.9</v>
@@ -1557,8 +1901,20 @@
       <c r="G24">
         <v>437.48</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>11395</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>10411</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>10937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>231.94</v>
@@ -1580,8 +1936,20 @@
       <c r="G25">
         <v>445.12</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>11597</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>10550</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>235.96</v>
@@ -1603,8 +1971,20 @@
       <c r="G26">
         <v>452.08</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>11798</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>10706</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>11302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>240.24</v>
@@ -1626,8 +2006,20 @@
       <c r="G27">
         <v>458.52</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>12012</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>10846</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>11463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>244.32</v>
@@ -1649,8 +2041,20 @@
       <c r="G28">
         <v>465.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>12216</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>11028</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>11635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>248.34</v>
@@ -1672,8 +2076,20 @@
       <c r="G29">
         <v>471.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>12417</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>11197</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>11795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>252.14</v>
@@ -1695,8 +2111,20 @@
       <c r="G30">
         <v>479.36</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>12607</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>11378</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>11984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>256.5</v>
@@ -1718,8 +2146,20 @@
       <c r="G31">
         <v>486.36</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>12825</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>11500</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>12159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>260.77999999999997</v>
@@ -1741,8 +2181,20 @@
       <c r="G32">
         <v>492.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>13038.999999999998</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>11629</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>12315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>265.10000000000002</v>
@@ -1764,8 +2216,20 @@
       <c r="G33">
         <v>497.88</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>13255.000000000002</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>11743</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>12447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>269.7</v>
@@ -1787,8 +2251,20 @@
       <c r="G34">
         <v>504.72</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>13485</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>11923</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>12618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>274.04000000000002</v>
@@ -1810,8 +2286,20 @@
       <c r="G35">
         <v>511</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>13702.000000000002</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>12024</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>12775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>278.95999999999998</v>
@@ -1833,8 +2321,20 @@
       <c r="G36">
         <v>516.52</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>13947.999999999998</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>12144</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>12913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>283.86</v>
@@ -1856,8 +2356,20 @@
       <c r="G37">
         <v>521.48</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>14193</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>12236</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>13037</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>288.14</v>
@@ -1879,8 +2391,20 @@
       <c r="G38">
         <v>527.20000000000005</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>14407</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>12312</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>13180.000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>293.12</v>
@@ -1902,8 +2426,20 @@
       <c r="G39">
         <v>533.24</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>14656</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>12372</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>13331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>298.39999999999998</v>
@@ -1925,8 +2461,20 @@
       <c r="G40">
         <v>540</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>14919.999999999998</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>12501</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>303.06</v>
@@ -1948,8 +2496,20 @@
       <c r="G41">
         <v>546.52</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>15153</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>12630</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>13663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>306.56</v>
@@ -1971,8 +2531,20 @@
       <c r="G42">
         <v>551.24</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>15328</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>12771</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>13781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>310.10000000000002</v>
@@ -1994,8 +2566,20 @@
       <c r="G43">
         <v>554.04</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>15505.000000000002</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>12838.999999999998</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>13851</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>313.27999999999997</v>
@@ -2017,8 +2601,20 @@
       <c r="G44">
         <v>561.24</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>15663.999999999998</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>12925</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>14031</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>316.54000000000002</v>
@@ -2040,8 +2636,20 @@
       <c r="G45">
         <v>565.52</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>15827.000000000002</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>12986.000000000002</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>14138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>319.77999999999997</v>
@@ -2063,8 +2671,20 @@
       <c r="G46">
         <v>571.20000000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>15988.999999999998</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>13172</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>14280.000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>323.10000000000002</v>
@@ -2086,8 +2706,20 @@
       <c r="G47">
         <v>574.96</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>16155.000000000002</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>13197</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>14374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>326.42</v>
@@ -2109,8 +2741,20 @@
       <c r="G48">
         <v>579.48</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>16321</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>13334</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>14487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>329.52</v>
@@ -2132,8 +2776,20 @@
       <c r="G49">
         <v>583.08000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>16476</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>13394</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>14577.000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>331.38</v>
@@ -2154,6 +2810,18 @@
       </c>
       <c r="G50">
         <v>586.20000000000005</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>16569</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>13422.999999999998</v>
+      </c>
+      <c r="K50">
+        <f>C50*50</f>
+        <v>14655.000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2180,7 +2848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_medfee.xlsx
+++ b/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_medfee.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="22845" windowHeight="9630"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="22848" windowHeight="9636"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -54,74 +54,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -133,7 +65,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -685,11 +617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98769920"/>
-        <c:axId val="98771712"/>
+        <c:axId val="92362240"/>
+        <c:axId val="92363776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98769920"/>
+        <c:axId val="92362240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +630,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98771712"/>
+        <c:crossAx val="92363776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -706,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98771712"/>
+        <c:axId val="92363776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -722,7 +654,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98769920"/>
+        <c:crossAx val="92362240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1066,15 +998,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K1" sqref="K1:K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1">
         <f>E1/2</f>
         <v>152.62</v>
@@ -1101,15 +1033,30 @@
         <v>7631</v>
       </c>
       <c r="J1">
-        <f>B1*50</f>
+        <v>7602.1</v>
+      </c>
+      <c r="K1">
+        <v>7622.68</v>
+      </c>
+      <c r="M1">
+        <v>7631</v>
+      </c>
+      <c r="N1">
         <v>7603</v>
       </c>
-      <c r="K1">
-        <f>C1*50</f>
+      <c r="O1">
         <v>7627</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P1">
+        <f>((N1-7600)*0.7)+7600</f>
+        <v>7602.1</v>
+      </c>
+      <c r="Q1">
+        <f>((O1-7600)*0.84)+7600</f>
+        <v>7622.68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A50" si="0">E2/2</f>
         <v>155.5</v>
@@ -1136,15 +1083,30 @@
         <v>7775</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J50" si="4">B2*50</f>
+        <v>7682.6</v>
+      </c>
+      <c r="K2">
+        <v>7752.8799999999992</v>
+      </c>
+      <c r="M2">
+        <v>7775</v>
+      </c>
+      <c r="N2">
         <v>7718.0000000000009</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K49" si="5">C2*50</f>
+      <c r="O2">
         <v>7781.9999999999991</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <f t="shared" ref="P2:P50" si="4">((N2-7600)*0.7)+7600</f>
+        <v>7682.6</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q50" si="5">((O2-7600)*0.84)+7600</f>
+        <v>7752.8799999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>158.41999999999999</v>
@@ -1171,15 +1133,30 @@
         <v>7920.9999999999991</v>
       </c>
       <c r="J3">
-        <f t="shared" si="4"/>
+        <v>7754</v>
+      </c>
+      <c r="K3">
+        <v>7884.76</v>
+      </c>
+      <c r="M3">
+        <v>7920.9999999999991</v>
+      </c>
+      <c r="N3">
         <v>7820</v>
       </c>
-      <c r="K3">
-        <f t="shared" si="5"/>
+      <c r="O3">
         <v>7939</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <f t="shared" si="4"/>
+        <v>7754</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="5"/>
+        <v>7884.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>161.12</v>
@@ -1206,15 +1183,30 @@
         <v>8056</v>
       </c>
       <c r="J4">
-        <f t="shared" si="4"/>
+        <v>7833.8</v>
+      </c>
+      <c r="K4">
+        <v>8019.1599999999989</v>
+      </c>
+      <c r="M4">
+        <v>8056</v>
+      </c>
+      <c r="N4">
         <v>7934</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="5"/>
+      <c r="O4">
         <v>8098.9999999999991</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>7833.8</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>8019.1599999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>164.22</v>
@@ -1241,15 +1233,30 @@
         <v>8211</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
+        <v>7903.8</v>
+      </c>
+      <c r="K5">
+        <v>8139.28</v>
+      </c>
+      <c r="M5">
+        <v>8211</v>
+      </c>
+      <c r="N5">
         <v>8034</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
+      <c r="O5">
         <v>8242</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>7903.8</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>8139.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>167.36</v>
@@ -1276,15 +1283,30 @@
         <v>8368</v>
       </c>
       <c r="J6">
-        <f t="shared" si="4"/>
+        <v>7967.5</v>
+      </c>
+      <c r="K6">
+        <v>8241.76</v>
+      </c>
+      <c r="M6">
+        <v>8368</v>
+      </c>
+      <c r="N6">
         <v>8125</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
+      <c r="O6">
         <v>8364</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>7967.5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>8241.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>170.08</v>
@@ -1311,15 +1333,30 @@
         <v>8504</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
+        <v>8045.2</v>
+      </c>
+      <c r="K7">
+        <v>8342.56</v>
+      </c>
+      <c r="M7">
+        <v>8504</v>
+      </c>
+      <c r="N7">
         <v>8236</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
+      <c r="O7">
         <v>8484</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>8045.2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>8342.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>172.96</v>
@@ -1346,15 +1383,30 @@
         <v>8648</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <v>8127.1</v>
+      </c>
+      <c r="K8">
+        <v>8456.7999999999993</v>
+      </c>
+      <c r="M8">
+        <v>8648</v>
+      </c>
+      <c r="N8">
         <v>8353</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
+      <c r="O8">
         <v>8620</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>8127.1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>8456.7999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>175.94</v>
@@ -1381,15 +1433,30 @@
         <v>8797</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <v>8198.5</v>
+      </c>
+      <c r="K9">
+        <v>8560.1200000000008</v>
+      </c>
+      <c r="M9">
+        <v>8797</v>
+      </c>
+      <c r="N9">
         <v>8455</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
+      <c r="O9">
         <v>8743</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>8198.5</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>8560.1200000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>179.1</v>
@@ -1416,15 +1483,30 @@
         <v>8955</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <v>8278.2999999999993</v>
+      </c>
+      <c r="K10">
+        <v>8672.68</v>
+      </c>
+      <c r="M10">
+        <v>8955</v>
+      </c>
+      <c r="N10">
         <v>8569</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
+      <c r="O10">
         <v>8877</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>8278.2999999999993</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>8672.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>182.4</v>
@@ -1451,15 +1533,30 @@
         <v>9120</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <v>8342.7000000000007</v>
+      </c>
+      <c r="K11">
+        <v>8759.2000000000007</v>
+      </c>
+      <c r="M11">
+        <v>9120</v>
+      </c>
+      <c r="N11">
         <v>8661</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
+      <c r="O11">
         <v>8980</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>8342.7000000000007</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>8759.2000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>185.66</v>
@@ -1486,15 +1583,30 @@
         <v>9283</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <v>8450.5</v>
+      </c>
+      <c r="K12">
+        <v>8872.6</v>
+      </c>
+      <c r="M12">
+        <v>9283</v>
+      </c>
+      <c r="N12">
         <v>8815</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
+      <c r="O12">
         <v>9115</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>8450.5</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>8872.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>189.38</v>
@@ -1521,15 +1633,30 @@
         <v>9469</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <v>8561.1</v>
+      </c>
+      <c r="K13">
+        <v>9007</v>
+      </c>
+      <c r="M13">
+        <v>9469</v>
+      </c>
+      <c r="N13">
         <v>8973</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
+      <c r="O13">
         <v>9275</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>8561.1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>9007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>192.6</v>
@@ -1556,15 +1683,30 @@
         <v>9630</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
+        <v>8654.2000000000007</v>
+      </c>
+      <c r="K14">
+        <v>9128.7999999999993</v>
+      </c>
+      <c r="M14">
+        <v>9630</v>
+      </c>
+      <c r="N14">
         <v>9106</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
+      <c r="O14">
         <v>9420</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>8654.2000000000007</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>9128.7999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>196.06</v>
@@ -1591,15 +1733,30 @@
         <v>9803</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
+        <v>8763.4</v>
+      </c>
+      <c r="K15">
+        <v>9253.9599999999991</v>
+      </c>
+      <c r="M15">
+        <v>9803</v>
+      </c>
+      <c r="N15">
         <v>9262</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
+      <c r="O15">
         <v>9569</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>8763.4</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>9253.9599999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>199.3</v>
@@ -1626,15 +1783,30 @@
         <v>9965</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
+        <v>8841.7999999999993</v>
+      </c>
+      <c r="K16">
+        <v>9365.68</v>
+      </c>
+      <c r="M16">
+        <v>9965</v>
+      </c>
+      <c r="N16">
         <v>9374</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
+      <c r="O16">
         <v>9702</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>8841.7999999999993</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>9365.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>203.06</v>
@@ -1661,15 +1833,30 @@
         <v>10153</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
+        <v>8923</v>
+      </c>
+      <c r="K17">
+        <v>9499.24</v>
+      </c>
+      <c r="M17">
+        <v>10153</v>
+      </c>
+      <c r="N17">
         <v>9490</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
+      <c r="O17">
         <v>9861</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>8923</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>9499.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>206.54</v>
@@ -1696,15 +1883,30 @@
         <v>10327</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
+        <v>9021.7000000000007</v>
+      </c>
+      <c r="K18">
+        <v>9614.32</v>
+      </c>
+      <c r="M18">
+        <v>10327</v>
+      </c>
+      <c r="N18">
         <v>9631</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
+      <c r="O18">
         <v>9998</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>9021.7000000000007</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>9614.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>209.98</v>
@@ -1731,15 +1933,30 @@
         <v>10499</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
+        <v>9111.2999999999993</v>
+      </c>
+      <c r="K19">
+        <v>9736.9599999999991</v>
+      </c>
+      <c r="M19">
+        <v>10499</v>
+      </c>
+      <c r="N19">
         <v>9759</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="5"/>
+      <c r="O19">
         <v>10144</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>9111.2999999999993</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>9736.9599999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>213.24</v>
@@ -1766,15 +1983,30 @@
         <v>10662</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <v>9198.7999999999993</v>
+      </c>
+      <c r="K20">
+        <v>9849.52</v>
+      </c>
+      <c r="M20">
+        <v>10662</v>
+      </c>
+      <c r="N20">
         <v>9884</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
+      <c r="O20">
         <v>10278</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>9198.7999999999993</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>9849.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>216.38</v>
@@ -1801,15 +2033,30 @@
         <v>10819</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
+        <v>9294.7000000000007</v>
+      </c>
+      <c r="K21">
+        <v>9966.2799999999988</v>
+      </c>
+      <c r="M21">
+        <v>10819</v>
+      </c>
+      <c r="N21">
         <v>10021</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="5"/>
+      <c r="O21">
         <v>10417</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>9294.7000000000007</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>9966.2799999999988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>219.82</v>
@@ -1836,15 +2083,30 @@
         <v>10991</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
+        <v>9390.6</v>
+      </c>
+      <c r="K22">
+        <v>10096.48</v>
+      </c>
+      <c r="M22">
+        <v>10991</v>
+      </c>
+      <c r="N22">
         <v>10158</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="5"/>
+      <c r="O22">
         <v>10572</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>9390.6</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>10096.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>223.88</v>
@@ -1871,15 +2133,30 @@
         <v>11194</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
+        <v>9467.6</v>
+      </c>
+      <c r="K23">
+        <v>10255.24</v>
+      </c>
+      <c r="M23">
+        <v>11194</v>
+      </c>
+      <c r="N23">
         <v>10268</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="5"/>
+      <c r="O23">
         <v>10761</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>9467.6</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>10255.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>227.9</v>
@@ -1906,15 +2183,30 @@
         <v>11395</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
+        <v>9567.7000000000007</v>
+      </c>
+      <c r="K24">
+        <v>10403.08</v>
+      </c>
+      <c r="M24">
+        <v>11395</v>
+      </c>
+      <c r="N24">
         <v>10411</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="5"/>
+      <c r="O24">
         <v>10937</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>9567.7000000000007</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>10403.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>231.94</v>
@@ -1941,15 +2233,30 @@
         <v>11597</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
+        <v>9665</v>
+      </c>
+      <c r="K25">
+        <v>10563.52</v>
+      </c>
+      <c r="M25">
+        <v>11597</v>
+      </c>
+      <c r="N25">
         <v>10550</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="5"/>
+      <c r="O25">
         <v>11128</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>9665</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>10563.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>235.96</v>
@@ -1976,15 +2283,30 @@
         <v>11798</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
+        <v>9774.2000000000007</v>
+      </c>
+      <c r="K26">
+        <v>10709.68</v>
+      </c>
+      <c r="M26">
+        <v>11798</v>
+      </c>
+      <c r="N26">
         <v>10706</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="5"/>
+      <c r="O26">
         <v>11302</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>9774.2000000000007</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>10709.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>240.24</v>
@@ -2011,15 +2333,30 @@
         <v>12012</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
+        <v>9872.2000000000007</v>
+      </c>
+      <c r="K27">
+        <v>10844.92</v>
+      </c>
+      <c r="M27">
+        <v>12012</v>
+      </c>
+      <c r="N27">
         <v>10846</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
+      <c r="O27">
         <v>11463</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>9872.2000000000007</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>10844.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>244.32</v>
@@ -2046,15 +2383,30 @@
         <v>12216</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
+        <v>9999.6</v>
+      </c>
+      <c r="K28">
+        <v>10989.4</v>
+      </c>
+      <c r="M28">
+        <v>12216</v>
+      </c>
+      <c r="N28">
         <v>11028</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
+      <c r="O28">
         <v>11635</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>9999.6</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>10989.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>248.34</v>
@@ -2081,15 +2433,30 @@
         <v>12417</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
+        <v>10117.9</v>
+      </c>
+      <c r="K29">
+        <v>11123.8</v>
+      </c>
+      <c r="M29">
+        <v>12417</v>
+      </c>
+      <c r="N29">
         <v>11197</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="5"/>
+      <c r="O29">
         <v>11795</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>10117.9</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>11123.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>252.14</v>
@@ -2116,15 +2483,30 @@
         <v>12607</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
+        <v>10244.6</v>
+      </c>
+      <c r="K30">
+        <v>11282.56</v>
+      </c>
+      <c r="M30">
+        <v>12607</v>
+      </c>
+      <c r="N30">
         <v>11378</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="5"/>
+      <c r="O30">
         <v>11984</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>10244.6</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>11282.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>256.5</v>
@@ -2151,15 +2533,30 @@
         <v>12825</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
+        <v>10330</v>
+      </c>
+      <c r="K31">
+        <v>11429.56</v>
+      </c>
+      <c r="M31">
+        <v>12825</v>
+      </c>
+      <c r="N31">
         <v>11500</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
+      <c r="O31">
         <v>12159</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>10330</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>11429.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>260.77999999999997</v>
@@ -2186,15 +2583,30 @@
         <v>13038.999999999998</v>
       </c>
       <c r="J32">
-        <f t="shared" si="4"/>
+        <v>10420.299999999999</v>
+      </c>
+      <c r="K32">
+        <v>11560.6</v>
+      </c>
+      <c r="M32">
+        <v>13038.999999999998</v>
+      </c>
+      <c r="N32">
         <v>11629</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
+      <c r="O32">
         <v>12315</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>10420.299999999999</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>11560.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>265.10000000000002</v>
@@ -2221,15 +2633,30 @@
         <v>13255.000000000002</v>
       </c>
       <c r="J33">
-        <f t="shared" si="4"/>
+        <v>10500.1</v>
+      </c>
+      <c r="K33">
+        <v>11671.48</v>
+      </c>
+      <c r="M33">
+        <v>13255.000000000002</v>
+      </c>
+      <c r="N33">
         <v>11743</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="5"/>
+      <c r="O33">
         <v>12447</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>10500.1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>11671.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>269.7</v>
@@ -2256,15 +2683,30 @@
         <v>13485</v>
       </c>
       <c r="J34">
-        <f t="shared" si="4"/>
+        <v>10626.1</v>
+      </c>
+      <c r="K34">
+        <v>11815.119999999999</v>
+      </c>
+      <c r="M34">
+        <v>13485</v>
+      </c>
+      <c r="N34">
         <v>11923</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="5"/>
+      <c r="O34">
         <v>12618</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>10626.1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>11815.119999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>274.04000000000002</v>
@@ -2291,15 +2733,30 @@
         <v>13702.000000000002</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
+        <v>10696.8</v>
+      </c>
+      <c r="K35">
+        <v>11947</v>
+      </c>
+      <c r="M35">
+        <v>13702.000000000002</v>
+      </c>
+      <c r="N35">
         <v>12024</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="5"/>
+      <c r="O35">
         <v>12775</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>10696.8</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>11947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>278.95999999999998</v>
@@ -2326,15 +2783,30 @@
         <v>13947.999999999998</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
+        <v>10780.8</v>
+      </c>
+      <c r="K36">
+        <v>12062.92</v>
+      </c>
+      <c r="M36">
+        <v>13947.999999999998</v>
+      </c>
+      <c r="N36">
         <v>12144</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="5"/>
+      <c r="O36">
         <v>12913</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>10780.8</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>12062.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>283.86</v>
@@ -2361,15 +2833,30 @@
         <v>14193</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <v>10845.2</v>
+      </c>
+      <c r="K37">
+        <v>12167.08</v>
+      </c>
+      <c r="M37">
+        <v>14193</v>
+      </c>
+      <c r="N37">
         <v>12236</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="5"/>
+      <c r="O37">
         <v>13037</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>10845.2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>12167.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>288.14</v>
@@ -2396,15 +2883,30 @@
         <v>14407</v>
       </c>
       <c r="J38">
-        <f t="shared" si="4"/>
+        <v>10898.4</v>
+      </c>
+      <c r="K38">
+        <v>12287.2</v>
+      </c>
+      <c r="M38">
+        <v>14407</v>
+      </c>
+      <c r="N38">
         <v>12312</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
+      <c r="O38">
         <v>13180.000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>10898.4</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>12287.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>293.12</v>
@@ -2431,15 +2933,30 @@
         <v>14656</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <v>10940.4</v>
+      </c>
+      <c r="K39">
+        <v>12414.04</v>
+      </c>
+      <c r="M39">
+        <v>14656</v>
+      </c>
+      <c r="N39">
         <v>12372</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="5"/>
+      <c r="O39">
         <v>13331</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>10940.4</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>12414.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>298.39999999999998</v>
@@ -2466,15 +2983,30 @@
         <v>14919.999999999998</v>
       </c>
       <c r="J40">
-        <f t="shared" si="4"/>
+        <v>11030.7</v>
+      </c>
+      <c r="K40">
+        <v>12556</v>
+      </c>
+      <c r="M40">
+        <v>14919.999999999998</v>
+      </c>
+      <c r="N40">
         <v>12501</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="5"/>
+      <c r="O40">
         <v>13500</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>11030.7</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>12556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>303.06</v>
@@ -2501,15 +3033,30 @@
         <v>15153</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <v>11121</v>
+      </c>
+      <c r="K41">
+        <v>12692.92</v>
+      </c>
+      <c r="M41">
+        <v>15153</v>
+      </c>
+      <c r="N41">
         <v>12630</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="5"/>
+      <c r="O41">
         <v>13663</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>11121</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>12692.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>306.56</v>
@@ -2536,15 +3083,30 @@
         <v>15328</v>
       </c>
       <c r="J42">
-        <f t="shared" si="4"/>
+        <v>11219.7</v>
+      </c>
+      <c r="K42">
+        <v>12792.04</v>
+      </c>
+      <c r="M42">
+        <v>15328</v>
+      </c>
+      <c r="N42">
         <v>12771</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="5"/>
+      <c r="O42">
         <v>13781</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>11219.7</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>12792.04</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>310.10000000000002</v>
@@ -2571,15 +3133,30 @@
         <v>15505.000000000002</v>
       </c>
       <c r="J43">
-        <f t="shared" si="4"/>
+        <v>11267.3</v>
+      </c>
+      <c r="K43">
+        <v>12850.84</v>
+      </c>
+      <c r="M43">
+        <v>15505.000000000002</v>
+      </c>
+      <c r="N43">
         <v>12838.999999999998</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="5"/>
+      <c r="O43">
         <v>13851</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>11267.3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="5"/>
+        <v>12850.84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>313.27999999999997</v>
@@ -2606,15 +3183,30 @@
         <v>15663.999999999998</v>
       </c>
       <c r="J44">
-        <f t="shared" si="4"/>
+        <v>11327.5</v>
+      </c>
+      <c r="K44">
+        <v>13002.04</v>
+      </c>
+      <c r="M44">
+        <v>15663.999999999998</v>
+      </c>
+      <c r="N44">
         <v>12925</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="5"/>
+      <c r="O44">
         <v>14031</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>11327.5</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="5"/>
+        <v>13002.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>316.54000000000002</v>
@@ -2641,15 +3233,30 @@
         <v>15827.000000000002</v>
       </c>
       <c r="J45">
-        <f t="shared" si="4"/>
+        <v>11370.2</v>
+      </c>
+      <c r="K45">
+        <v>13091.92</v>
+      </c>
+      <c r="M45">
+        <v>15827.000000000002</v>
+      </c>
+      <c r="N45">
         <v>12986.000000000002</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="5"/>
+      <c r="O45">
         <v>14138</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>11370.2</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="5"/>
+        <v>13091.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>319.77999999999997</v>
@@ -2676,15 +3283,30 @@
         <v>15988.999999999998</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <v>11500.4</v>
+      </c>
+      <c r="K46">
+        <v>13211.2</v>
+      </c>
+      <c r="M46">
+        <v>15988.999999999998</v>
+      </c>
+      <c r="N46">
         <v>13172</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="5"/>
+      <c r="O46">
         <v>14280.000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>11500.4</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="5"/>
+        <v>13211.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>323.10000000000002</v>
@@ -2711,15 +3333,30 @@
         <v>16155.000000000002</v>
       </c>
       <c r="J47">
-        <f t="shared" si="4"/>
+        <v>11517.9</v>
+      </c>
+      <c r="K47">
+        <v>13290.16</v>
+      </c>
+      <c r="M47">
+        <v>16155.000000000002</v>
+      </c>
+      <c r="N47">
         <v>13197</v>
       </c>
-      <c r="K47">
-        <f t="shared" si="5"/>
+      <c r="O47">
         <v>14374</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>11517.9</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="5"/>
+        <v>13290.16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>326.42</v>
@@ -2746,15 +3383,30 @@
         <v>16321</v>
       </c>
       <c r="J48">
-        <f t="shared" si="4"/>
+        <v>11613.8</v>
+      </c>
+      <c r="K48">
+        <v>13385.08</v>
+      </c>
+      <c r="M48">
+        <v>16321</v>
+      </c>
+      <c r="N48">
         <v>13334</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="5"/>
+      <c r="O48">
         <v>14487</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>11613.8</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="5"/>
+        <v>13385.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>329.52</v>
@@ -2781,15 +3433,30 @@
         <v>16476</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <v>11655.8</v>
+      </c>
+      <c r="K49">
+        <v>13460.68</v>
+      </c>
+      <c r="M49">
+        <v>16476</v>
+      </c>
+      <c r="N49">
         <v>13394</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="5"/>
+      <c r="O49">
         <v>14577.000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>11655.8</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="5"/>
+        <v>13460.68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>331.38</v>
@@ -2816,12 +3483,27 @@
         <v>16569</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <v>11676.099999999999</v>
+      </c>
+      <c r="K50">
+        <v>13526.2</v>
+      </c>
+      <c r="M50">
+        <v>16569</v>
+      </c>
+      <c r="N50">
         <v>13422.999999999998</v>
       </c>
-      <c r="K50">
-        <f>C50*50</f>
+      <c r="O50">
         <v>14655.000000000002</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="4"/>
+        <v>11676.099999999999</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="5"/>
+        <v>13526.2</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +3518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2848,7 +3530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_medfee.xlsx
+++ b/papers/coopv2/ICSOC Submission/matlab-charts/avg_bud_medfee.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22848" windowHeight="9636"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22845" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -65,7 +65,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -617,11 +617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92362240"/>
-        <c:axId val="92363776"/>
+        <c:axId val="96177536"/>
+        <c:axId val="96183424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92362240"/>
+        <c:axId val="96177536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +630,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92363776"/>
+        <c:crossAx val="96183424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -638,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92363776"/>
+        <c:axId val="96183424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -654,7 +654,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92362240"/>
+        <c:crossAx val="96177536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,12 +1001,12 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K50"/>
+      <selection activeCell="J1" sqref="J1:K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1">
         <f>E1/2</f>
         <v>152.62</v>
@@ -1033,10 +1033,10 @@
         <v>7631</v>
       </c>
       <c r="J1">
-        <v>7602.1</v>
+        <v>7602.16</v>
       </c>
       <c r="K1">
-        <v>7622.68</v>
+        <v>7623.49</v>
       </c>
       <c r="M1">
         <v>7631</v>
@@ -1048,15 +1048,15 @@
         <v>7627</v>
       </c>
       <c r="P1">
-        <f>((N1-7600)*0.7)+7600</f>
-        <v>7602.1</v>
+        <f>((N1-7600)*0.72)+7600</f>
+        <v>7602.16</v>
       </c>
       <c r="Q1">
-        <f>((O1-7600)*0.84)+7600</f>
-        <v>7622.68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <f>((O1-7600)*0.87)+7600</f>
+        <v>7623.49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A50" si="0">E2/2</f>
         <v>155.5</v>
@@ -1083,10 +1083,10 @@
         <v>7775</v>
       </c>
       <c r="J2">
-        <v>7682.6</v>
+        <v>7684.9600000000009</v>
       </c>
       <c r="K2">
-        <v>7752.8799999999992</v>
+        <v>7758.3399999999992</v>
       </c>
       <c r="M2">
         <v>7775</v>
@@ -1098,15 +1098,15 @@
         <v>7781.9999999999991</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P50" si="4">((N2-7600)*0.7)+7600</f>
-        <v>7682.6</v>
+        <f t="shared" ref="P2:P50" si="4">((N2-7600)*0.72)+7600</f>
+        <v>7684.9600000000009</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q50" si="5">((O2-7600)*0.84)+7600</f>
-        <v>7752.8799999999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Q2:Q50" si="5">((O2-7600)*0.87)+7600</f>
+        <v>7758.3399999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>158.41999999999999</v>
@@ -1133,10 +1133,10 @@
         <v>7920.9999999999991</v>
       </c>
       <c r="J3">
-        <v>7754</v>
+        <v>7758.4</v>
       </c>
       <c r="K3">
-        <v>7884.76</v>
+        <v>7894.93</v>
       </c>
       <c r="M3">
         <v>7920.9999999999991</v>
@@ -1149,14 +1149,14 @@
       </c>
       <c r="P3">
         <f t="shared" si="4"/>
-        <v>7754</v>
+        <v>7758.4</v>
       </c>
       <c r="Q3">
         <f t="shared" si="5"/>
-        <v>7884.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7894.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>161.12</v>
@@ -1183,10 +1183,10 @@
         <v>8056</v>
       </c>
       <c r="J4">
-        <v>7833.8</v>
+        <v>7840.48</v>
       </c>
       <c r="K4">
-        <v>8019.1599999999989</v>
+        <v>8034.1299999999992</v>
       </c>
       <c r="M4">
         <v>8056</v>
@@ -1199,14 +1199,14 @@
       </c>
       <c r="P4">
         <f t="shared" si="4"/>
-        <v>7833.8</v>
+        <v>7840.48</v>
       </c>
       <c r="Q4">
         <f t="shared" si="5"/>
-        <v>8019.1599999999989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8034.1299999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>164.22</v>
@@ -1233,10 +1233,10 @@
         <v>8211</v>
       </c>
       <c r="J5">
-        <v>7903.8</v>
+        <v>7912.48</v>
       </c>
       <c r="K5">
-        <v>8139.28</v>
+        <v>8158.54</v>
       </c>
       <c r="M5">
         <v>8211</v>
@@ -1249,14 +1249,14 @@
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
-        <v>7903.8</v>
+        <v>7912.48</v>
       </c>
       <c r="Q5">
         <f t="shared" si="5"/>
-        <v>8139.28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8158.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>167.36</v>
@@ -1283,10 +1283,10 @@
         <v>8368</v>
       </c>
       <c r="J6">
-        <v>7967.5</v>
+        <v>7978</v>
       </c>
       <c r="K6">
-        <v>8241.76</v>
+        <v>8264.68</v>
       </c>
       <c r="M6">
         <v>8368</v>
@@ -1299,14 +1299,14 @@
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>7967.5</v>
+        <v>7978</v>
       </c>
       <c r="Q6">
         <f t="shared" si="5"/>
-        <v>8241.76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8264.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>170.08</v>
@@ -1333,10 +1333,10 @@
         <v>8504</v>
       </c>
       <c r="J7">
-        <v>8045.2</v>
+        <v>8057.92</v>
       </c>
       <c r="K7">
-        <v>8342.56</v>
+        <v>8369.08</v>
       </c>
       <c r="M7">
         <v>8504</v>
@@ -1349,14 +1349,14 @@
       </c>
       <c r="P7">
         <f t="shared" si="4"/>
-        <v>8045.2</v>
+        <v>8057.92</v>
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>8342.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8369.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>172.96</v>
@@ -1383,10 +1383,10 @@
         <v>8648</v>
       </c>
       <c r="J8">
-        <v>8127.1</v>
+        <v>8142.16</v>
       </c>
       <c r="K8">
-        <v>8456.7999999999993</v>
+        <v>8487.4</v>
       </c>
       <c r="M8">
         <v>8648</v>
@@ -1399,14 +1399,14 @@
       </c>
       <c r="P8">
         <f t="shared" si="4"/>
-        <v>8127.1</v>
+        <v>8142.16</v>
       </c>
       <c r="Q8">
         <f t="shared" si="5"/>
-        <v>8456.7999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8487.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>175.94</v>
@@ -1433,10 +1433,10 @@
         <v>8797</v>
       </c>
       <c r="J9">
-        <v>8198.5</v>
+        <v>8215.6</v>
       </c>
       <c r="K9">
-        <v>8560.1200000000008</v>
+        <v>8594.41</v>
       </c>
       <c r="M9">
         <v>8797</v>
@@ -1449,14 +1449,14 @@
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>8198.5</v>
+        <v>8215.6</v>
       </c>
       <c r="Q9">
         <f t="shared" si="5"/>
-        <v>8560.1200000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8594.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>179.1</v>
@@ -1483,10 +1483,10 @@
         <v>8955</v>
       </c>
       <c r="J10">
-        <v>8278.2999999999993</v>
+        <v>8297.68</v>
       </c>
       <c r="K10">
-        <v>8672.68</v>
+        <v>8710.99</v>
       </c>
       <c r="M10">
         <v>8955</v>
@@ -1499,14 +1499,14 @@
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>8278.2999999999993</v>
+        <v>8297.68</v>
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>8672.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8710.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>182.4</v>
@@ -1533,10 +1533,10 @@
         <v>9120</v>
       </c>
       <c r="J11">
-        <v>8342.7000000000007</v>
+        <v>8363.92</v>
       </c>
       <c r="K11">
-        <v>8759.2000000000007</v>
+        <v>8800.6</v>
       </c>
       <c r="M11">
         <v>9120</v>
@@ -1549,14 +1549,14 @@
       </c>
       <c r="P11">
         <f t="shared" si="4"/>
-        <v>8342.7000000000007</v>
+        <v>8363.92</v>
       </c>
       <c r="Q11">
         <f t="shared" si="5"/>
-        <v>8759.2000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8800.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>185.66</v>
@@ -1583,10 +1583,10 @@
         <v>9283</v>
       </c>
       <c r="J12">
-        <v>8450.5</v>
+        <v>8474.7999999999993</v>
       </c>
       <c r="K12">
-        <v>8872.6</v>
+        <v>8918.0499999999993</v>
       </c>
       <c r="M12">
         <v>9283</v>
@@ -1599,14 +1599,14 @@
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>8450.5</v>
+        <v>8474.7999999999993</v>
       </c>
       <c r="Q12">
         <f t="shared" si="5"/>
-        <v>8872.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8918.0499999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>189.38</v>
@@ -1633,10 +1633,10 @@
         <v>9469</v>
       </c>
       <c r="J13">
-        <v>8561.1</v>
+        <v>8588.56</v>
       </c>
       <c r="K13">
-        <v>9007</v>
+        <v>9057.25</v>
       </c>
       <c r="M13">
         <v>9469</v>
@@ -1649,14 +1649,14 @@
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>8561.1</v>
+        <v>8588.56</v>
       </c>
       <c r="Q13">
         <f t="shared" si="5"/>
-        <v>9007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9057.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>192.6</v>
@@ -1683,10 +1683,10 @@
         <v>9630</v>
       </c>
       <c r="J14">
-        <v>8654.2000000000007</v>
+        <v>8684.32</v>
       </c>
       <c r="K14">
-        <v>9128.7999999999993</v>
+        <v>9183.4</v>
       </c>
       <c r="M14">
         <v>9630</v>
@@ -1699,14 +1699,14 @@
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>8654.2000000000007</v>
+        <v>8684.32</v>
       </c>
       <c r="Q14">
         <f t="shared" si="5"/>
-        <v>9128.7999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9183.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>196.06</v>
@@ -1733,10 +1733,10 @@
         <v>9803</v>
       </c>
       <c r="J15">
-        <v>8763.4</v>
+        <v>8796.64</v>
       </c>
       <c r="K15">
-        <v>9253.9599999999991</v>
+        <v>9313.0300000000007</v>
       </c>
       <c r="M15">
         <v>9803</v>
@@ -1749,14 +1749,14 @@
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>8763.4</v>
+        <v>8796.64</v>
       </c>
       <c r="Q15">
         <f t="shared" si="5"/>
-        <v>9253.9599999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9313.0300000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>199.3</v>
@@ -1783,10 +1783,10 @@
         <v>9965</v>
       </c>
       <c r="J16">
-        <v>8841.7999999999993</v>
+        <v>8877.2800000000007</v>
       </c>
       <c r="K16">
-        <v>9365.68</v>
+        <v>9428.74</v>
       </c>
       <c r="M16">
         <v>9965</v>
@@ -1799,14 +1799,14 @@
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>8841.7999999999993</v>
+        <v>8877.2800000000007</v>
       </c>
       <c r="Q16">
         <f t="shared" si="5"/>
-        <v>9365.68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9428.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>203.06</v>
@@ -1833,10 +1833,10 @@
         <v>10153</v>
       </c>
       <c r="J17">
-        <v>8923</v>
+        <v>8960.7999999999993</v>
       </c>
       <c r="K17">
-        <v>9499.24</v>
+        <v>9567.07</v>
       </c>
       <c r="M17">
         <v>10153</v>
@@ -1849,14 +1849,14 @@
       </c>
       <c r="P17">
         <f t="shared" si="4"/>
-        <v>8923</v>
+        <v>8960.7999999999993</v>
       </c>
       <c r="Q17">
         <f t="shared" si="5"/>
-        <v>9499.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9567.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>206.54</v>
@@ -1883,10 +1883,10 @@
         <v>10327</v>
       </c>
       <c r="J18">
-        <v>9021.7000000000007</v>
+        <v>9062.32</v>
       </c>
       <c r="K18">
-        <v>9614.32</v>
+        <v>9686.26</v>
       </c>
       <c r="M18">
         <v>10327</v>
@@ -1899,14 +1899,14 @@
       </c>
       <c r="P18">
         <f t="shared" si="4"/>
-        <v>9021.7000000000007</v>
+        <v>9062.32</v>
       </c>
       <c r="Q18">
         <f t="shared" si="5"/>
-        <v>9614.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9686.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>209.98</v>
@@ -1933,10 +1933,10 @@
         <v>10499</v>
       </c>
       <c r="J19">
-        <v>9111.2999999999993</v>
+        <v>9154.48</v>
       </c>
       <c r="K19">
-        <v>9736.9599999999991</v>
+        <v>9813.2800000000007</v>
       </c>
       <c r="M19">
         <v>10499</v>
@@ -1949,14 +1949,14 @@
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>9111.2999999999993</v>
+        <v>9154.48</v>
       </c>
       <c r="Q19">
         <f t="shared" si="5"/>
-        <v>9736.9599999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9813.2800000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>213.24</v>
@@ -1983,10 +1983,10 @@
         <v>10662</v>
       </c>
       <c r="J20">
-        <v>9198.7999999999993</v>
+        <v>9244.48</v>
       </c>
       <c r="K20">
-        <v>9849.52</v>
+        <v>9929.86</v>
       </c>
       <c r="M20">
         <v>10662</v>
@@ -1999,14 +1999,14 @@
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>9198.7999999999993</v>
+        <v>9244.48</v>
       </c>
       <c r="Q20">
         <f t="shared" si="5"/>
-        <v>9849.52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>9929.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>216.38</v>
@@ -2033,10 +2033,10 @@
         <v>10819</v>
       </c>
       <c r="J21">
-        <v>9294.7000000000007</v>
+        <v>9343.119999999999</v>
       </c>
       <c r="K21">
-        <v>9966.2799999999988</v>
+        <v>10050.790000000001</v>
       </c>
       <c r="M21">
         <v>10819</v>
@@ -2049,14 +2049,14 @@
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>9294.7000000000007</v>
+        <v>9343.119999999999</v>
       </c>
       <c r="Q21">
         <f t="shared" si="5"/>
-        <v>9966.2799999999988</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10050.790000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>219.82</v>
@@ -2083,10 +2083,10 @@
         <v>10991</v>
       </c>
       <c r="J22">
-        <v>9390.6</v>
+        <v>9441.76</v>
       </c>
       <c r="K22">
-        <v>10096.48</v>
+        <v>10185.64</v>
       </c>
       <c r="M22">
         <v>10991</v>
@@ -2099,14 +2099,14 @@
       </c>
       <c r="P22">
         <f t="shared" si="4"/>
-        <v>9390.6</v>
+        <v>9441.76</v>
       </c>
       <c r="Q22">
         <f t="shared" si="5"/>
-        <v>10096.48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10185.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>223.88</v>
@@ -2133,10 +2133,10 @@
         <v>11194</v>
       </c>
       <c r="J23">
-        <v>9467.6</v>
+        <v>9520.9599999999991</v>
       </c>
       <c r="K23">
-        <v>10255.24</v>
+        <v>10350.07</v>
       </c>
       <c r="M23">
         <v>11194</v>
@@ -2149,14 +2149,14 @@
       </c>
       <c r="P23">
         <f t="shared" si="4"/>
-        <v>9467.6</v>
+        <v>9520.9599999999991</v>
       </c>
       <c r="Q23">
         <f t="shared" si="5"/>
-        <v>10255.24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10350.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>227.9</v>
@@ -2183,10 +2183,10 @@
         <v>11395</v>
       </c>
       <c r="J24">
-        <v>9567.7000000000007</v>
+        <v>9623.92</v>
       </c>
       <c r="K24">
-        <v>10403.08</v>
+        <v>10503.19</v>
       </c>
       <c r="M24">
         <v>11395</v>
@@ -2199,14 +2199,14 @@
       </c>
       <c r="P24">
         <f t="shared" si="4"/>
-        <v>9567.7000000000007</v>
+        <v>9623.92</v>
       </c>
       <c r="Q24">
         <f t="shared" si="5"/>
-        <v>10403.08</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10503.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>231.94</v>
@@ -2233,10 +2233,10 @@
         <v>11597</v>
       </c>
       <c r="J25">
-        <v>9665</v>
+        <v>9724</v>
       </c>
       <c r="K25">
-        <v>10563.52</v>
+        <v>10669.36</v>
       </c>
       <c r="M25">
         <v>11597</v>
@@ -2249,14 +2249,14 @@
       </c>
       <c r="P25">
         <f t="shared" si="4"/>
-        <v>9665</v>
+        <v>9724</v>
       </c>
       <c r="Q25">
         <f t="shared" si="5"/>
-        <v>10563.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10669.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>235.96</v>
@@ -2283,10 +2283,10 @@
         <v>11798</v>
       </c>
       <c r="J26">
-        <v>9774.2000000000007</v>
+        <v>9836.32</v>
       </c>
       <c r="K26">
-        <v>10709.68</v>
+        <v>10820.74</v>
       </c>
       <c r="M26">
         <v>11798</v>
@@ -2299,14 +2299,14 @@
       </c>
       <c r="P26">
         <f t="shared" si="4"/>
-        <v>9774.2000000000007</v>
+        <v>9836.32</v>
       </c>
       <c r="Q26">
         <f t="shared" si="5"/>
-        <v>10709.68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10820.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>240.24</v>
@@ -2333,10 +2333,10 @@
         <v>12012</v>
       </c>
       <c r="J27">
-        <v>9872.2000000000007</v>
+        <v>9937.119999999999</v>
       </c>
       <c r="K27">
-        <v>10844.92</v>
+        <v>10960.81</v>
       </c>
       <c r="M27">
         <v>12012</v>
@@ -2349,14 +2349,14 @@
       </c>
       <c r="P27">
         <f t="shared" si="4"/>
-        <v>9872.2000000000007</v>
+        <v>9937.119999999999</v>
       </c>
       <c r="Q27">
         <f t="shared" si="5"/>
-        <v>10844.92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10960.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>244.32</v>
@@ -2383,10 +2383,10 @@
         <v>12216</v>
       </c>
       <c r="J28">
-        <v>9999.6</v>
+        <v>10068.16</v>
       </c>
       <c r="K28">
-        <v>10989.4</v>
+        <v>11110.45</v>
       </c>
       <c r="M28">
         <v>12216</v>
@@ -2399,14 +2399,14 @@
       </c>
       <c r="P28">
         <f t="shared" si="4"/>
-        <v>9999.6</v>
+        <v>10068.16</v>
       </c>
       <c r="Q28">
         <f t="shared" si="5"/>
-        <v>10989.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>11110.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>248.34</v>
@@ -2433,10 +2433,10 @@
         <v>12417</v>
       </c>
       <c r="J29">
-        <v>10117.9</v>
+        <v>10189.84</v>
       </c>
       <c r="K29">
-        <v>11123.8</v>
+        <v>11249.65</v>
       </c>
       <c r="M29">
         <v>12417</v>
@@ -2449,14 +2449,14 @@
       </c>
       <c r="P29">
         <f t="shared" si="4"/>
-        <v>10117.9</v>
+        <v>10189.84</v>
       </c>
       <c r="Q29">
         <f t="shared" si="5"/>
-        <v>11123.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>11249.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>252.14</v>
@@ -2483,10 +2483,10 @@
         <v>12607</v>
       </c>
       <c r="J30">
-        <v>10244.6</v>
+        <v>10320.16</v>
       </c>
       <c r="K30">
-        <v>11282.56</v>
+        <v>11414.08</v>
       </c>
       <c r="M30">
         <v>12607</v>
@@ -2499,14 +2499,14 @@
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
-        <v>10244.6</v>
+        <v>10320.16</v>
       </c>
       <c r="Q30">
         <f t="shared" si="5"/>
-        <v>11282.56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>11414.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>256.5</v>
@@ -2533,10 +2533,10 @@
         <v>12825</v>
       </c>
       <c r="J31">
-        <v>10330</v>
+        <v>10408</v>
       </c>
       <c r="K31">
-        <v>11429.56</v>
+        <v>11566.33</v>
       </c>
       <c r="M31">
         <v>12825</v>
@@ -2549,14 +2549,14 @@
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
-        <v>10330</v>
+        <v>10408</v>
       </c>
       <c r="Q31">
         <f t="shared" si="5"/>
-        <v>11429.56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>11566.33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>260.77999999999997</v>
@@ -2583,10 +2583,10 @@
         <v>13038.999999999998</v>
       </c>
       <c r="J32">
-        <v>10420.299999999999</v>
+        <v>10500.880000000001</v>
       </c>
       <c r="K32">
-        <v>11560.6</v>
+        <v>11702.05</v>
       </c>
       <c r="M32">
         <v>13038.999999999998</v>
@@ -2599,14 +2599,14 @@
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
-        <v>10420.299999999999</v>
+        <v>10500.880000000001</v>
       </c>
       <c r="Q32">
         <f t="shared" si="5"/>
-        <v>11560.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>11702.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>265.10000000000002</v>
@@ -2633,10 +2633,10 @@
         <v>13255.000000000002</v>
       </c>
       <c r="J33">
-        <v>10500.1</v>
+        <v>10582.96</v>
       </c>
       <c r="K33">
-        <v>11671.48</v>
+        <v>11816.89</v>
       </c>
       <c r="M33">
         <v>13255.000000000002</v>
@@ -2649,14 +2649,14 @@
       </c>
       <c r="P33">
         <f t="shared" si="4"/>
-        <v>10500.1</v>
+        <v>10582.96</v>
       </c>
       <c r="Q33">
         <f t="shared" si="5"/>
-        <v>11671.48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>11816.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>269.7</v>
@@ -2683,10 +2683,10 @@
         <v>13485</v>
       </c>
       <c r="J34">
-        <v>10626.1</v>
+        <v>10712.56</v>
       </c>
       <c r="K34">
-        <v>11815.119999999999</v>
+        <v>11965.66</v>
       </c>
       <c r="M34">
         <v>13485</v>
@@ -2699,14 +2699,14 @@
       </c>
       <c r="P34">
         <f t="shared" si="4"/>
-        <v>10626.1</v>
+        <v>10712.56</v>
       </c>
       <c r="Q34">
         <f t="shared" si="5"/>
-        <v>11815.119999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>11965.66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>274.04000000000002</v>
@@ -2733,10 +2733,10 @@
         <v>13702.000000000002</v>
       </c>
       <c r="J35">
-        <v>10696.8</v>
+        <v>10785.279999999999</v>
       </c>
       <c r="K35">
-        <v>11947</v>
+        <v>12102.25</v>
       </c>
       <c r="M35">
         <v>13702.000000000002</v>
@@ -2749,14 +2749,14 @@
       </c>
       <c r="P35">
         <f t="shared" si="4"/>
-        <v>10696.8</v>
+        <v>10785.279999999999</v>
       </c>
       <c r="Q35">
         <f t="shared" si="5"/>
-        <v>11947</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12102.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>278.95999999999998</v>
@@ -2783,10 +2783,10 @@
         <v>13947.999999999998</v>
       </c>
       <c r="J36">
-        <v>10780.8</v>
+        <v>10871.68</v>
       </c>
       <c r="K36">
-        <v>12062.92</v>
+        <v>12222.310000000001</v>
       </c>
       <c r="M36">
         <v>13947.999999999998</v>
@@ -2799,14 +2799,14 @@
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
-        <v>10780.8</v>
+        <v>10871.68</v>
       </c>
       <c r="Q36">
         <f t="shared" si="5"/>
-        <v>12062.92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12222.310000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>283.86</v>
@@ -2833,10 +2833,10 @@
         <v>14193</v>
       </c>
       <c r="J37">
-        <v>10845.2</v>
+        <v>10937.92</v>
       </c>
       <c r="K37">
-        <v>12167.08</v>
+        <v>12330.189999999999</v>
       </c>
       <c r="M37">
         <v>14193</v>
@@ -2849,14 +2849,14 @@
       </c>
       <c r="P37">
         <f t="shared" si="4"/>
-        <v>10845.2</v>
+        <v>10937.92</v>
       </c>
       <c r="Q37">
         <f t="shared" si="5"/>
-        <v>12167.08</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12330.189999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>288.14</v>
@@ -2883,10 +2883,10 @@
         <v>14407</v>
       </c>
       <c r="J38">
-        <v>10898.4</v>
+        <v>10992.64</v>
       </c>
       <c r="K38">
-        <v>12287.2</v>
+        <v>12454.600000000002</v>
       </c>
       <c r="M38">
         <v>14407</v>
@@ -2899,14 +2899,14 @@
       </c>
       <c r="P38">
         <f t="shared" si="4"/>
-        <v>10898.4</v>
+        <v>10992.64</v>
       </c>
       <c r="Q38">
         <f t="shared" si="5"/>
-        <v>12287.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12454.600000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>293.12</v>
@@ -2933,10 +2933,10 @@
         <v>14656</v>
       </c>
       <c r="J39">
-        <v>10940.4</v>
+        <v>11035.84</v>
       </c>
       <c r="K39">
-        <v>12414.04</v>
+        <v>12585.970000000001</v>
       </c>
       <c r="M39">
         <v>14656</v>
@@ -2949,14 +2949,14 @@
       </c>
       <c r="P39">
         <f t="shared" si="4"/>
-        <v>10940.4</v>
+        <v>11035.84</v>
       </c>
       <c r="Q39">
         <f t="shared" si="5"/>
-        <v>12414.04</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12585.970000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>298.39999999999998</v>
@@ -2983,10 +2983,10 @@
         <v>14919.999999999998</v>
       </c>
       <c r="J40">
-        <v>11030.7</v>
+        <v>11128.72</v>
       </c>
       <c r="K40">
-        <v>12556</v>
+        <v>12733</v>
       </c>
       <c r="M40">
         <v>14919.999999999998</v>
@@ -2999,14 +2999,14 @@
       </c>
       <c r="P40">
         <f t="shared" si="4"/>
-        <v>11030.7</v>
+        <v>11128.72</v>
       </c>
       <c r="Q40">
         <f t="shared" si="5"/>
-        <v>12556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>303.06</v>
@@ -3033,10 +3033,10 @@
         <v>15153</v>
       </c>
       <c r="J41">
-        <v>11121</v>
+        <v>11221.6</v>
       </c>
       <c r="K41">
-        <v>12692.92</v>
+        <v>12874.810000000001</v>
       </c>
       <c r="M41">
         <v>15153</v>
@@ -3049,14 +3049,14 @@
       </c>
       <c r="P41">
         <f t="shared" si="4"/>
-        <v>11121</v>
+        <v>11221.6</v>
       </c>
       <c r="Q41">
         <f t="shared" si="5"/>
-        <v>12692.92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12874.810000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>306.56</v>
@@ -3083,10 +3083,10 @@
         <v>15328</v>
       </c>
       <c r="J42">
-        <v>11219.7</v>
+        <v>11323.119999999999</v>
       </c>
       <c r="K42">
-        <v>12792.04</v>
+        <v>12977.470000000001</v>
       </c>
       <c r="M42">
         <v>15328</v>
@@ -3099,14 +3099,14 @@
       </c>
       <c r="P42">
         <f t="shared" si="4"/>
-        <v>11219.7</v>
+        <v>11323.119999999999</v>
       </c>
       <c r="Q42">
         <f t="shared" si="5"/>
-        <v>12792.04</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12977.470000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>310.10000000000002</v>
@@ -3133,10 +3133,10 @@
         <v>15505.000000000002</v>
       </c>
       <c r="J43">
-        <v>11267.3</v>
+        <v>11372.079999999998</v>
       </c>
       <c r="K43">
-        <v>12850.84</v>
+        <v>13038.369999999999</v>
       </c>
       <c r="M43">
         <v>15505.000000000002</v>
@@ -3149,14 +3149,14 @@
       </c>
       <c r="P43">
         <f t="shared" si="4"/>
-        <v>11267.3</v>
+        <v>11372.079999999998</v>
       </c>
       <c r="Q43">
         <f t="shared" si="5"/>
-        <v>12850.84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>13038.369999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>313.27999999999997</v>
@@ -3183,10 +3183,10 @@
         <v>15663.999999999998</v>
       </c>
       <c r="J44">
-        <v>11327.5</v>
+        <v>11434</v>
       </c>
       <c r="K44">
-        <v>13002.04</v>
+        <v>13194.970000000001</v>
       </c>
       <c r="M44">
         <v>15663.999999999998</v>
@@ -3199,14 +3199,14 @@
       </c>
       <c r="P44">
         <f t="shared" si="4"/>
-        <v>11327.5</v>
+        <v>11434</v>
       </c>
       <c r="Q44">
         <f t="shared" si="5"/>
-        <v>13002.04</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>13194.970000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>316.54000000000002</v>
@@ -3233,10 +3233,10 @@
         <v>15827.000000000002</v>
       </c>
       <c r="J45">
-        <v>11370.2</v>
+        <v>11477.920000000002</v>
       </c>
       <c r="K45">
-        <v>13091.92</v>
+        <v>13288.060000000001</v>
       </c>
       <c r="M45">
         <v>15827.000000000002</v>
@@ -3249,14 +3249,14 @@
       </c>
       <c r="P45">
         <f t="shared" si="4"/>
-        <v>11370.2</v>
+        <v>11477.920000000002</v>
       </c>
       <c r="Q45">
         <f t="shared" si="5"/>
-        <v>13091.92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <v>13288.060000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>319.77999999999997</v>
@@ -3283,10 +3283,10 @@
         <v>15988.999999999998</v>
       </c>
       <c r="J46">
-        <v>11500.4</v>
+        <v>11611.84</v>
       </c>
       <c r="K46">
-        <v>13211.2</v>
+        <v>13411.600000000002</v>
       </c>
       <c r="M46">
         <v>15988.999999999998</v>
@@ -3299,14 +3299,14 @@
       </c>
       <c r="P46">
         <f t="shared" si="4"/>
-        <v>11500.4</v>
+        <v>11611.84</v>
       </c>
       <c r="Q46">
         <f t="shared" si="5"/>
-        <v>13211.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>13411.600000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>323.10000000000002</v>
@@ -3333,10 +3333,10 @@
         <v>16155.000000000002</v>
       </c>
       <c r="J47">
-        <v>11517.9</v>
+        <v>11629.84</v>
       </c>
       <c r="K47">
-        <v>13290.16</v>
+        <v>13493.380000000001</v>
       </c>
       <c r="M47">
         <v>16155.000000000002</v>
@@ -3349,14 +3349,14 @@
       </c>
       <c r="P47">
         <f t="shared" si="4"/>
-        <v>11517.9</v>
+        <v>11629.84</v>
       </c>
       <c r="Q47">
         <f t="shared" si="5"/>
-        <v>13290.16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>13493.380000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>326.42</v>
@@ -3383,10 +3383,10 @@
         <v>16321</v>
       </c>
       <c r="J48">
-        <v>11613.8</v>
+        <v>11728.48</v>
       </c>
       <c r="K48">
-        <v>13385.08</v>
+        <v>13591.689999999999</v>
       </c>
       <c r="M48">
         <v>16321</v>
@@ -3399,14 +3399,14 @@
       </c>
       <c r="P48">
         <f t="shared" si="4"/>
-        <v>11613.8</v>
+        <v>11728.48</v>
       </c>
       <c r="Q48">
         <f t="shared" si="5"/>
-        <v>13385.08</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+        <v>13591.689999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>329.52</v>
@@ -3433,10 +3433,10 @@
         <v>16476</v>
       </c>
       <c r="J49">
-        <v>11655.8</v>
+        <v>11771.68</v>
       </c>
       <c r="K49">
-        <v>13460.68</v>
+        <v>13669.990000000002</v>
       </c>
       <c r="M49">
         <v>16476</v>
@@ -3449,14 +3449,14 @@
       </c>
       <c r="P49">
         <f t="shared" si="4"/>
-        <v>11655.8</v>
+        <v>11771.68</v>
       </c>
       <c r="Q49">
         <f t="shared" si="5"/>
-        <v>13460.68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <v>13669.990000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>331.38</v>
@@ -3483,10 +3483,10 @@
         <v>16569</v>
       </c>
       <c r="J50">
-        <v>11676.099999999999</v>
+        <v>11792.559999999998</v>
       </c>
       <c r="K50">
-        <v>13526.2</v>
+        <v>13737.850000000002</v>
       </c>
       <c r="M50">
         <v>16569</v>
@@ -3499,11 +3499,11 @@
       </c>
       <c r="P50">
         <f t="shared" si="4"/>
-        <v>11676.099999999999</v>
+        <v>11792.559999999998</v>
       </c>
       <c r="Q50">
         <f t="shared" si="5"/>
-        <v>13526.2</v>
+        <v>13737.850000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3530,7 +3530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
